--- a/ner/spacy/spacy_ner.xlsx
+++ b/ner/spacy/spacy_ner.xlsx
@@ -451,12 +451,12 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>spacy_ner_recd_ents</t>
+          <t>entities</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>gold_ents</t>
+          <t>labels</t>
         </is>
       </c>
     </row>
@@ -479,7 +479,11 @@
           <t>CIRCUMSTANCES AE UNK</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>ORG</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -500,7 +504,11 @@
           <t>2</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>CARDINAL</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -521,7 +529,11 @@
           <t>CIRCUIT BREAKER</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>PERSON</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -542,7 +554,11 @@
           <t>PUMP</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>ORG</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -563,7 +579,11 @@
           <t>RETURNED</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>PERSON</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -584,7 +604,11 @@
           <t>TIMOTHY ALLEN WELLS</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>PERSON</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -605,7 +629,11 @@
           <t>ONE</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>CARDINAL</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -626,7 +654,11 @@
           <t>LOST CONTROL</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>PERSON</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -647,7 +679,11 @@
           <t>LEFT</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>PERSON</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -668,7 +704,11 @@
           <t>SIPHONED</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>ORG</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -689,7 +729,11 @@
           <t>LOOSE COWLING ON TAKEOFF</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>ORG</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -710,7 +754,11 @@
           <t>LANDED SAFELY</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>PERSON</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -731,7 +779,11 @@
           <t>NR2 ENGINE FIRE</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>ORG</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -752,7 +804,11 @@
           <t>CUT</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>ORG</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -773,7 +829,11 @@
           <t>SMOKE</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>ORG</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -794,7 +854,11 @@
           <t>ON OIL</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>ORG</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -815,7 +879,11 @@
           <t>COMPARTMENT DOOR CAME</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>ORG</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -836,7 +904,11 @@
           <t>RETURNED</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>PERSON</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -857,7 +929,11 @@
           <t>PIN</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>ORG</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -878,7 +954,11 @@
           <t>9 INCH</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>QUANTITY</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -899,7 +979,11 @@
           <t>AIRLINES</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>ORG</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -920,7 +1004,11 @@
           <t>SLIGHTLY</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>ORG</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -941,7 +1029,11 @@
           <t>DOOR</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>ORG</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -962,7 +1054,11 @@
           <t>VEERED</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>NORP</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -983,7 +1079,11 @@
           <t>NEWLY</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>ORG</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1004,7 +1104,11 @@
           <t>VEERED OFF TAXIWAY</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>ORG</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1025,7 +1129,11 @@
           <t>JULY 13, 2005</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>DATE</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1046,7 +1154,11 @@
           <t>1535</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>DATE</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1067,7 +1179,11 @@
           <t>BONANZA</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>ORG</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1088,7 +1204,11 @@
           <t>ENGINE</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>ORG</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1109,7 +1229,11 @@
           <t>EDGE</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>ORG</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1130,7 +1254,11 @@
           <t>LOST CONTROL ON CLIMBOUT AFTER TOW RELEASE</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>ORG</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1151,7 +1279,11 @@
           <t>WAYS</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>ORG</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1172,7 +1304,11 @@
           <t>MAINTENANCE</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>PERSON</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1193,7 +1329,11 @@
           <t>SKID</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>ORG</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1214,7 +1354,11 @@
           <t>LOST CONTROL</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>PERSON</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1235,7 +1379,11 @@
           <t>RAN</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>ORG</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1256,7 +1404,11 @@
           <t>OFF END</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>PRODUCT</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1277,7 +1429,11 @@
           <t>SNOW BANK</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>ORG</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1298,7 +1454,11 @@
           <t>FROST</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>ORG</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1319,7 +1479,11 @@
           <t>ENGINE POWER FAILURE</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>ORG</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1340,7 +1504,11 @@
           <t>MAG</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>ORG</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1361,7 +1529,11 @@
           <t>ONE</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>CARDINAL</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1382,7 +1554,11 @@
           <t>MAG</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>ORG</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1403,7 +1579,11 @@
           <t>START</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>ORG</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1424,7 +1604,11 @@
           <t>RUN</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>ORG</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1445,7 +1629,11 @@
           <t>NOSE</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>ORG</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1466,7 +1654,11 @@
           <t>RETURNED</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>PERSON</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1487,7 +1679,11 @@
           <t>STEVEN'S</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>PERSON</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1508,7 +1704,11 @@
           <t>BRAKES</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr"/>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>PERSON</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1529,7 +1729,11 @@
           <t>ONE</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr"/>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>CARDINAL</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1550,7 +1754,11 @@
           <t>DURIN</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr"/>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>ORG</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1571,7 +1779,11 @@
           <t>SLID</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr"/>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>ORG</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1592,7 +1804,11 @@
           <t>AIRPLANE STRUCTURE</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr"/>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>FAC</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1613,7 +1829,11 @@
           <t>BELLCRANK</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr"/>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>ORG</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1634,7 +1854,11 @@
           <t>LOST POWER ENROUTE</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr"/>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>ORG</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1655,7 +1879,11 @@
           <t>SLOPE</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr"/>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>ORG</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1676,7 +1904,11 @@
           <t>LOST LEFT</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr"/>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>PERSON</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -1697,7 +1929,11 @@
           <t>BAD OIL LEAK</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr"/>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>ORG</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -1718,7 +1954,11 @@
           <t>2500</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr"/>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>CARDINAL</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -1739,7 +1979,11 @@
           <t>NORTH WIND</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr"/>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>PERSON</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -1760,7 +2004,11 @@
           <t>HIT TREES OFF END</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr"/>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>ORG</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -1781,7 +2029,11 @@
           <t>207</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr"/>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>CARDINAL</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -1802,7 +2054,11 @@
           <t>3 MILES</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr"/>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>QUANTITY</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -1823,7 +2079,11 @@
           <t>DOOR</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr"/>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>ORG</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -1844,7 +2104,11 @@
           <t>ON SEA ICE</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr"/>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>PRODUCT</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -1865,7 +2129,11 @@
           <t>WILL</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr"/>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>ORG</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -1886,7 +2154,11 @@
           <t>DOOR</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr"/>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>ORG</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -1907,7 +2179,11 @@
           <t>PRIMER UNLOCKED</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr"/>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>ORG</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -1928,7 +2204,11 @@
           <t>CFI NOTICED NOSE LANDING</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr"/>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>ORG</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -1949,7 +2229,11 @@
           <t>ELECTRIC POWER</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr"/>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>ORG</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -1970,7 +2254,11 @@
           <t>FOUND CIRCUIT BREAKER OFF</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr"/>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>ORG</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -1991,7 +2279,11 @@
           <t>RETURNED</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr"/>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>PERSON</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -2012,7 +2304,11 @@
           <t>LOST CONTROL</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr"/>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>PERSON</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -2033,7 +2329,11 @@
           <t>ENGINE RAN ROUGH</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr"/>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>ORG</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -2054,7 +2354,11 @@
           <t>PILOT</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr"/>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>ORG</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -2075,7 +2379,11 @@
           <t>MARCH 14, 1995</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr"/>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>DATE</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -2096,7 +2404,11 @@
           <t>N7016M</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr"/>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>ORG</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -2117,7 +2429,11 @@
           <t>TAXIING AIRCRAFT STRUCK PARKED AIRCRAFT</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr"/>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>ORG</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -2138,7 +2454,11 @@
           <t>ON ENGINE</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr"/>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>ORG</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -2159,7 +2479,11 @@
           <t>THROTTLE</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr"/>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>ORG</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -2180,7 +2504,11 @@
           <t>RAN</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr"/>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>ORG</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -2201,7 +2529,11 @@
           <t>BVO</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr"/>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>ORG</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -2222,7 +2554,11 @@
           <t>BARTLESVILLE</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr"/>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>GPE</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -2243,7 +2579,11 @@
           <t>1147 AM</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr"/>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>TIME</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -2264,7 +2604,11 @@
           <t>SNOW PACKED</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr"/>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>ORG</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -2285,7 +2629,11 @@
           <t>LOST POWER LANDED HARD IN ROUGH WATER</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr"/>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>ORG</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -2306,7 +2654,11 @@
           <t>NOTH PLATTE</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr"/>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>ORG</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -2327,7 +2679,11 @@
           <t>NE</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr"/>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>ORG</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -2348,7 +2704,11 @@
           <t>TO IOWA CITY</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr"/>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>GPE</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -2369,7 +2729,11 @@
           <t>IA</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr"/>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>GPE</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -2390,7 +2754,11 @@
           <t>487 STATUTE MILES</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr"/>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>QUANTITY</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -2411,7 +2779,11 @@
           <t>GRINNELL</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr"/>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>ORG</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -2432,7 +2804,11 @@
           <t>SUB</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr"/>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>ORG</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -2453,7 +2829,11 @@
           <t>ROD BENT</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr"/>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>PERSON</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -2474,7 +2854,11 @@
           <t>ARKANSAS</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr"/>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>PERSON</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -2495,7 +2879,11 @@
           <t>TENNESSEE</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr"/>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>ORG</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -2516,7 +2904,11 @@
           <t>ON CLIMBOUT NOSE BAGGAGE DOOR</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr"/>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>ORG</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -2537,7 +2929,11 @@
           <t>JAMMED SHEN</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr"/>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>PERSON</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -2558,7 +2954,11 @@
           <t>LOST POWER EN ROUTE</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr"/>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>ORG</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -2579,7 +2979,11 @@
           <t>LEFT FUEL CAP LEAKED</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr"/>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>PERSON</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -2600,7 +3004,11 @@
           <t>HOUSE</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr"/>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>ORG</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -2621,7 +3029,11 @@
           <t>KADERA</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr"/>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>PERSON</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -2642,7 +3054,11 @@
           <t>THREE MILES EAST OF</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr"/>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>TIME</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -2663,7 +3079,11 @@
           <t>IOWA</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr"/>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>ORG</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -2684,7 +3104,11 @@
           <t>SEPTEMBER 23, 1999</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr"/>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>DATE</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -2705,7 +3129,11 @@
           <t>1900 HOURS PACIFIC DAYLIGHT</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr"/>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>TIME</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -2726,7 +3154,11 @@
           <t>HOMEBUILT</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr"/>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>ORG</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -2747,7 +3179,11 @@
           <t>EXPERIEN</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr"/>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>PERSON</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -2768,7 +3204,11 @@
           <t>PITCHED UP</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr"/>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>ORG</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -2789,7 +3229,11 @@
           <t>FEBRUARY 19, 2000</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr"/>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>DATE</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -2810,7 +3254,11 @@
           <t>1825 EASTERN</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr"/>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>TIME</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -2831,7 +3279,11 @@
           <t>1900D</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr"/>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>DATE</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -2852,7 +3304,11 @@
           <t>BURNED</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr"/>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>ORG</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -2873,7 +3329,11 @@
           <t>LOUD POP ON TAKEOFF ROLL</t>
         </is>
       </c>
-      <c r="E116" t="inlineStr"/>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>ORG</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -2894,7 +3354,11 @@
           <t>CONTROL</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr"/>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>ORG</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -2915,7 +3379,11 @@
           <t>EXITED</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr"/>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>ORG</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -2936,7 +3404,11 @@
           <t>TAILWHEEL</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr"/>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>ORG</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -2957,7 +3429,11 @@
           <t>CANOPY</t>
         </is>
       </c>
-      <c r="E120" t="inlineStr"/>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>ORG</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -2978,7 +3454,11 @@
           <t>ENGINE</t>
         </is>
       </c>
-      <c r="E121" t="inlineStr"/>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>ORG</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
